--- a/csv_database/xlsx/similarity.xlsx
+++ b/csv_database/xlsx/similarity.xlsx
@@ -1,21 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cora\Dropbox\git_projects\CSCI-3308-Group-Project\csv_database\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="27526"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12740" windowHeight="17460"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
@@ -24,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="17">
   <si>
     <t>Bird_ID_1</t>
   </si>
@@ -39,12 +37,48 @@
   </si>
   <si>
     <t>Sim_ID</t>
+  </si>
+  <si>
+    <t>Northern Shoveler (M)</t>
+  </si>
+  <si>
+    <t>Mallard (M)</t>
+  </si>
+  <si>
+    <t>Mallard (F)</t>
+  </si>
+  <si>
+    <t>Northern Shoveler (F)</t>
+  </si>
+  <si>
+    <t>Garganey (M)</t>
+  </si>
+  <si>
+    <t>Northern Pintail (M)</t>
+  </si>
+  <si>
+    <t>Northern Pintail (F)</t>
+  </si>
+  <si>
+    <t>Garganey (F)</t>
+  </si>
+  <si>
+    <t>Red-Breasted Merganser (M)</t>
+  </si>
+  <si>
+    <t>Common Merganser (M)</t>
+  </si>
+  <si>
+    <t>Common Merganser (F)</t>
+  </si>
+  <si>
+    <t>Red Breasted Merganser (F)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -146,7 +180,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -181,7 +215,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -358,7 +392,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -366,21 +400,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="3" width="8.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24" customWidth="1"/>
+    <col min="5" max="5" width="19.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -397,7 +431,216 @@
         <v>3</v>
       </c>
     </row>
+    <row r="2" spans="1:5">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>30</v>
+      </c>
+      <c r="C2">
+        <v>23</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>30</v>
+      </c>
+      <c r="C3">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>31</v>
+      </c>
+      <c r="C4">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>31</v>
+      </c>
+      <c r="C5">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>34</v>
+      </c>
+      <c r="C6">
+        <v>32</v>
+      </c>
+      <c r="D6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>34</v>
+      </c>
+      <c r="C7">
+        <v>33</v>
+      </c>
+      <c r="D7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>35</v>
+      </c>
+      <c r="C8">
+        <v>32</v>
+      </c>
+      <c r="D8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>35</v>
+      </c>
+      <c r="C9">
+        <v>33</v>
+      </c>
+      <c r="D9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>70</v>
+      </c>
+      <c r="C10">
+        <v>68</v>
+      </c>
+      <c r="D10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>70</v>
+      </c>
+      <c r="C11">
+        <v>69</v>
+      </c>
+      <c r="D11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>71</v>
+      </c>
+      <c r="C12">
+        <v>68</v>
+      </c>
+      <c r="D12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>71</v>
+      </c>
+      <c r="C13">
+        <v>69</v>
+      </c>
+      <c r="D13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/csv_database/xlsx/similarity.xlsx
+++ b/csv_database/xlsx/similarity.xlsx
@@ -1,20 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="27526"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27715"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Rachel/Downloads/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12740" windowHeight="17460"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -22,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="37">
   <si>
     <t>Bird_ID_1</t>
   </si>
@@ -73,6 +81,66 @@
   </si>
   <si>
     <t>Red Breasted Merganser (F)</t>
+  </si>
+  <si>
+    <t>Gunnison Sage-Grouse (M)</t>
+  </si>
+  <si>
+    <t>Great Sage-Grouse (M)</t>
+  </si>
+  <si>
+    <t>Great Sage-Grouse (F)</t>
+  </si>
+  <si>
+    <t>Gunnison Sage-Grouse (F)</t>
+  </si>
+  <si>
+    <t>Lesser Prairie-Chicken (M)</t>
+  </si>
+  <si>
+    <t>Great Prairire-Chicken (M)</t>
+  </si>
+  <si>
+    <t>Great Prairire-Chicken (F)</t>
+  </si>
+  <si>
+    <t>Lesser Prairie-Chicken (F)</t>
+  </si>
+  <si>
+    <t>Artic Loon</t>
+  </si>
+  <si>
+    <t>Pacific Loon</t>
+  </si>
+  <si>
+    <t>Western Grebe</t>
+  </si>
+  <si>
+    <t>Clark's Grebe</t>
+  </si>
+  <si>
+    <t>Neotropic Cormorant</t>
+  </si>
+  <si>
+    <t>Double-Crested Cormorant</t>
+  </si>
+  <si>
+    <t>Great Egret</t>
+  </si>
+  <si>
+    <t>Snowy Egret</t>
+  </si>
+  <si>
+    <t>Glossy Ibis</t>
+  </si>
+  <si>
+    <t>White-Faced Ibis</t>
+  </si>
+  <si>
+    <t>Black-Belled Plover</t>
+  </si>
+  <si>
+    <t>American Golden-Plover</t>
   </si>
 </sst>
 </file>
@@ -392,7 +460,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -400,21 +468,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D25" sqref="D25"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="3" width="8.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24" customWidth="1"/>
-    <col min="5" max="5" width="19.1640625" customWidth="1"/>
+    <col min="5" max="5" width="20.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -431,7 +499,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -448,7 +516,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -465,7 +533,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -482,7 +550,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -499,7 +567,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -516,7 +584,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -533,7 +601,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -550,7 +618,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -567,7 +635,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -584,7 +652,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -601,7 +669,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -618,7 +686,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -635,12 +703,245 @@
         <v>15</v>
       </c>
     </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>83</v>
+      </c>
+      <c r="C14">
+        <v>81</v>
+      </c>
+      <c r="D14" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>83</v>
+      </c>
+      <c r="C15">
+        <v>82</v>
+      </c>
+      <c r="D15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>84</v>
+      </c>
+      <c r="C16">
+        <v>81</v>
+      </c>
+      <c r="D16" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>84</v>
+      </c>
+      <c r="C17">
+        <v>82</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>93</v>
+      </c>
+      <c r="C18">
+        <v>91</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>93</v>
+      </c>
+      <c r="C19">
+        <v>92</v>
+      </c>
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>94</v>
+      </c>
+      <c r="C20">
+        <v>91</v>
+      </c>
+      <c r="D20" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>94</v>
+      </c>
+      <c r="C21">
+        <v>92</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>98</v>
+      </c>
+      <c r="C22">
+        <v>99</v>
+      </c>
+      <c r="D22" t="s">
+        <v>25</v>
+      </c>
+      <c r="E22" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>109</v>
+      </c>
+      <c r="C23">
+        <v>110</v>
+      </c>
+      <c r="D23" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>114</v>
+      </c>
+      <c r="C24">
+        <v>115</v>
+      </c>
+      <c r="D24" t="s">
+        <v>29</v>
+      </c>
+      <c r="E24" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>122</v>
+      </c>
+      <c r="C25">
+        <v>123</v>
+      </c>
+      <c r="D25" t="s">
+        <v>31</v>
+      </c>
+      <c r="E25" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>133</v>
+      </c>
+      <c r="C26">
+        <v>134</v>
+      </c>
+      <c r="D26" t="s">
+        <v>33</v>
+      </c>
+      <c r="E26" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>174</v>
+      </c>
+      <c r="C27">
+        <v>175</v>
+      </c>
+      <c r="D27" t="s">
+        <v>35</v>
+      </c>
+      <c r="E27" t="s">
+        <v>36</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>